--- a/templates/BA Evaluasi Prakualifikasi.xlsx
+++ b/templates/BA Evaluasi Prakualifikasi.xlsx
@@ -57,6 +57,123 @@
       </rPr>
       <t>#namapengadaan#</t>
     </r>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Pemasukan Dokumen Prakualifikasi</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>Yang mengambil Dokumen Prakualifikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Penyedia Barang/Jasa</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>Yang memasukan dokumen prakualifikasi</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>Yang tidak memasukan dokumen prakualifikasi</t>
+  </si>
+  <si>
+    <t>Hasil Kualifikasi</t>
+  </si>
+  <si>
+    <t>Berdasarkan penilaian prakualifikasi yang diterima, maka calon penyedia barang/jasa  dibawah ini dinyatakan memenuhi persyaratan sesuai dengan Dokumen Prakualifikasi No.002/WEB/PPBJ-P.B/2012 sebagai berikut :</t>
+  </si>
+  <si>
+    <t>Yang memenuhi dokumen prakualifikasi</t>
+  </si>
+  <si>
+    <t>Yang tidak memenuhi dokumen prakualifikasi</t>
+  </si>
+  <si>
+    <t>Hasil prakualifikasi perusahaan sebagai berikut :</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Penyedia Jasa Konsultan</t>
+  </si>
+  <si>
+    <t>Administrasi</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Penilaian rinci kualifikasi terlampir</t>
+  </si>
+  <si>
+    <t>Demikian Berita Acara ini dibuat yang ditandantangani oleh seluruh anggota panitia pengadaan barang/jasa.</t>
+  </si>
+  <si>
+    <t>Disahkan oleh :</t>
+  </si>
+  <si>
+    <t>.................. /</t>
+  </si>
+  <si>
+    <t>Ketua merangkap Anggota</t>
+  </si>
+  <si>
+    <t>…………………………</t>
+  </si>
+  <si>
+    <t>............/</t>
+  </si>
+  <si>
+    <t>Sekretaris merangkap Anggota</t>
+  </si>
+  <si>
+    <t>..............</t>
+  </si>
+  <si>
+    <t>............</t>
+  </si>
+  <si>
+    <t>Anggota</t>
+  </si>
+  <si>
+    <t>#mengambil#</t>
+  </si>
+  <si>
+    <t>#memasukkan#</t>
+  </si>
+  <si>
+    <t>#tidakmemasukkan#</t>
+  </si>
+  <si>
+    <t>#memenuhi#</t>
+  </si>
+  <si>
+    <t>#tidakmemenuhi#</t>
+  </si>
+  <si>
+    <t>#KDIVMUM/MSDAF#</t>
   </si>
   <si>
     <r>
@@ -137,7 +254,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>#panitia#</t>
+      <t>#namapanitia#</t>
     </r>
     <r>
       <rPr>
@@ -154,7 +271,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>...........</t>
+      <t>#metodepengadaan#</t>
     </r>
     <r>
       <rPr>
@@ -162,41 +279,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(metode) sesuai Surat Tugas Kepala Divisi Umum dan Manajemen Kantor Pusat No. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#nosk#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tanggal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tglsk#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> telah melakukan kualifikasi terhadap dokumen prakualikasi yang disampaikan Penyedia Barang/Jasa sesuai Dokumen Prakualifikasi No </t>
+      <t xml:space="preserve">(metode) #kalimatpanitia# telah melakukan kualifikasi terhadap dokumen prakualikasi yang disampaikan Penyedia Barang/Jasa sesuai Dokumen Prakualifikasi No </t>
     </r>
     <r>
       <rPr>
@@ -234,105 +317,6 @@
     </r>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Pemasukan Dokumen Prakualifikasi</t>
-  </si>
-  <si>
-    <t>a.</t>
-  </si>
-  <si>
-    <t>Yang mengambil Dokumen Prakualifikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Penyedia Barang/Jasa</t>
-  </si>
-  <si>
-    <t>b.</t>
-  </si>
-  <si>
-    <t>Yang memasukan dokumen prakualifikasi</t>
-  </si>
-  <si>
-    <t>c.</t>
-  </si>
-  <si>
-    <t>Yang tidak memasukan dokumen prakualifikasi</t>
-  </si>
-  <si>
-    <t>Hasil Kualifikasi</t>
-  </si>
-  <si>
-    <t>Berdasarkan penilaian prakualifikasi yang diterima, maka calon penyedia barang/jasa  dibawah ini dinyatakan memenuhi persyaratan sesuai dengan Dokumen Prakualifikasi No.002/WEB/PPBJ-P.B/2012 sebagai berikut :</t>
-  </si>
-  <si>
-    <t>Yang memenuhi dokumen prakualifikasi</t>
-  </si>
-  <si>
-    <t>Yang tidak memenuhi dokumen prakualifikasi</t>
-  </si>
-  <si>
-    <t>Hasil prakualifikasi perusahaan sebagai berikut :</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Penyedia Jasa Konsultan</t>
-  </si>
-  <si>
-    <t>Administrasi</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Penilaian rinci kualifikasi terlampir</t>
-  </si>
-  <si>
-    <t>Demikian Berita Acara ini dibuat yang ditandantangani oleh seluruh anggota panitia pengadaan barang/jasa.</t>
-  </si>
-  <si>
-    <t>Disahkan oleh :</t>
-  </si>
-  <si>
-    <t>.................. /</t>
-  </si>
-  <si>
-    <t>Ketua merangkap Anggota</t>
-  </si>
-  <si>
-    <t>…………………………</t>
-  </si>
-  <si>
-    <t>............/</t>
-  </si>
-  <si>
-    <t>Sekretaris merangkap Anggota</t>
-  </si>
-  <si>
-    <t>..............</t>
-  </si>
-  <si>
-    <t>............</t>
-  </si>
-  <si>
-    <t>Anggota</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -357,26 +341,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>#namapengadaan#</t>
+      <t>#namapengadaan2#</t>
     </r>
-  </si>
-  <si>
-    <t>#mengambil#</t>
-  </si>
-  <si>
-    <t>#memasukkan#</t>
-  </si>
-  <si>
-    <t>#tidakmemasukkan#</t>
-  </si>
-  <si>
-    <t>#memenuhi#</t>
-  </si>
-  <si>
-    <t>#tidakmemenuhi#</t>
-  </si>
-  <si>
-    <t>#KDIVMUM/MSDAF#</t>
   </si>
 </sst>
 </file>
@@ -682,74 +648,74 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1211,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:K28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1235,41 +1201,41 @@
     </row>
     <row r="7" spans="1:15" ht="18">
       <c r="A7" s="4"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4"/>
@@ -1290,104 +1256,104 @@
     </row>
     <row r="10" spans="1:15" ht="17">
       <c r="A10" s="4"/>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15">
       <c r="A11" s="4"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+    </row>
+    <row r="15" spans="1:15" ht="57" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="B15" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="1:15" ht="15">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1406,24 +1372,24 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="63" t="s">
-        <v>40</v>
+      <c r="K17" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="L17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -1433,24 +1399,24 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="63" t="s">
-        <v>41</v>
+      <c r="K18" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="L18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1460,22 +1426,22 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="63" t="s">
-        <v>42</v>
+      <c r="K19" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -1504,7 +1470,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1522,42 +1488,42 @@
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
+      <c r="D22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="1:15" ht="15">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="63" t="s">
-        <v>43</v>
+      <c r="K23" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -1567,22 +1533,22 @@
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="63" t="s">
-        <v>44</v>
+      <c r="K24" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -1592,7 +1558,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
@@ -1628,17 +1594,17 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="56"/>
       <c r="H27" s="56"/>
       <c r="I27" s="57"/>
       <c r="J27" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="17"/>
@@ -1651,14 +1617,14 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="42"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="44"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -1670,14 +1636,14 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="22"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="43"/>
       <c r="K29" s="44"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -1689,14 +1655,14 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="22"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="44"/>
-      <c r="J30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="44"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -1708,14 +1674,14 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="22"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="44"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="44"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -1727,14 +1693,14 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="22"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="44"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="43"/>
       <c r="K32" s="44"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -1763,7 +1729,7 @@
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -1824,11 +1790,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="4"/>
@@ -1842,13 +1808,13 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="45" t="str">
+      <c r="L38" s="63" t="str">
         <f>B8</f>
         <v>No. #nobapq#</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="4"/>
@@ -1886,22 +1852,22 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="4"/>
-      <c r="B41" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
+      <c r="B41" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="4"/>
@@ -1926,16 +1892,16 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
+      <c r="H43" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="4"/>
@@ -1945,30 +1911,30 @@
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="9"/>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="35"/>
@@ -1987,13 +1953,13 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="35"/>
       <c r="M46" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
@@ -2041,10 +2007,10 @@
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
@@ -2063,27 +2029,27 @@
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
       <c r="I50" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
       <c r="M50" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="37"/>
-      <c r="B51" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
+      <c r="B51" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
@@ -2095,14 +2061,14 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="37"/>
-      <c r="B52" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="B52" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
@@ -2121,10 +2087,10 @@
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
@@ -2143,13 +2109,13 @@
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="37"/>
       <c r="M54" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N54" s="37"/>
       <c r="O54" s="37"/>
@@ -2428,6 +2394,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B41:O41"/>
+    <mergeCell ref="H43:O44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
@@ -2442,19 +2421,6 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="H43:O44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/templates/BA Evaluasi Prakualifikasi.xlsx
+++ b/templates/BA Evaluasi Prakualifikasi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="160" windowWidth="23580" windowHeight="14140"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -174,147 +174,6 @@
   </si>
   <si>
     <t>#KDIVMUM/MSDAF#</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pada hari ini </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#hari#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tanggal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tanggal#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> bulan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#bulan#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tahun </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tahun# (#tgllengkap#)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , kami yang bertandatangan di bawah ini </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#namapanitia#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pengadaan Barang/Jasa melalui </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#metodepengadaan#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(metode) #kalimatpanitia# telah melakukan kualifikasi terhadap dokumen prakualikasi yang disampaikan Penyedia Barang/Jasa sesuai Dokumen Prakualifikasi No </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#nopq#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tanggal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tglpq#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> dengan hasil sebagai berikut :</t>
-    </r>
   </si>
   <si>
     <r>
@@ -344,16 +203,19 @@
       <t>#namapengadaan2#</t>
     </r>
   </si>
+  <si>
+    <t>Pada hari ini #hari# tanggal #tanggal# bulan #bulan# tahun #tahun# (#tgllengkap#) , kami yang bertandatangan di bawah ini #namapanitia# Pengadaan Barang/Jasa melalui #metodepengadaan# (metode) #kalimatpanitia# telah melakukan kualifikasi terhadap dokumen prakualikasi yang disampaikan Penyedia Barang/Jasa sesuai Dokumen Prakualifikasi No #nopq# tanggal #tglpq# dengan hasil sebagai berikut :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +304,26 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -523,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -552,15 +434,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -654,11 +530,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -675,12 +578,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,25 +593,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -758,7 +658,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -781,14 +681,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1174,21 +1074,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:O44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" customWidth="1"/>
-    <col min="6" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="6" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15">
@@ -1199,43 +1100,43 @@
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="20.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4"/>
@@ -1254,199 +1155,199 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="17">
+    <row r="10" spans="1:15" ht="18">
       <c r="A10" s="4"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-    </row>
-    <row r="11" spans="1:15" ht="15">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="4"/>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="15" spans="1:15" ht="57" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-    </row>
-    <row r="16" spans="1:15" ht="15">
+      <c r="B15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="15">
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="42" t="s">
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" ht="15">
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="42" t="s">
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" ht="15">
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="42" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="70"/>
+      <c r="M19" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" ht="15">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1463,7 +1364,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" ht="15">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
         <v>2</v>
@@ -1481,29 +1382,29 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" ht="15">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-    </row>
-    <row r="23" spans="1:15" ht="15">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -1518,17 +1419,17 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="11" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1543,17 +1444,17 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="11" t="s">
+      <c r="L24" s="12"/>
+      <c r="M24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15" ht="15.75">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -1566,182 +1467,182 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15" ht="15.75">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="53" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55" t="s">
+      <c r="E27" s="59"/>
+      <c r="F27" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="55" t="s">
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="21" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="23"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="28" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="4"/>
@@ -1790,11 +1691,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="64" t="s">
+      <c r="M37" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="4"/>
@@ -1808,13 +1709,13 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="63" t="str">
+      <c r="L38" s="44" t="str">
         <f>B8</f>
         <v>No. #nobapq#</v>
       </c>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="4"/>
@@ -1829,9 +1730,9 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="4"/>
@@ -1846,32 +1747,32 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="4"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="4"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="28"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1886,527 +1787,514 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="4"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="4"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="9"/>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="33" t="s">
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="32" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="9"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="35"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35" t="s">
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35" t="s">
+      <c r="L46" s="33"/>
+      <c r="M46" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="39" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="41" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="35" t="s">
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="37"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="37"/>
-      <c r="B52" s="61" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="39" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="35" t="s">
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="37"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="H43:O44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
@@ -2421,6 +2309,19 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B41:O41"/>
+    <mergeCell ref="H43:O44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/templates/BA Evaluasi Prakualifikasi.xlsx
+++ b/templates/BA Evaluasi Prakualifikasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="BA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>BERITA ACARA</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - Penilaian lulus adalah KD &gt; Perkiraan Biaya</t>
+  </si>
+  <si>
+    <t>Teknis</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -848,9 +851,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -946,128 +946,11 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,65 +1005,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,12 +1024,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,21 +1038,476 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,7 +1517,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,291 +1553,11 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2051,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:O8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,6 +2069,7 @@
     <col min="6" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2076,41 +2083,41 @@
     </row>
     <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -2131,195 +2138,195 @@
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
     </row>
     <row r="15" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="176"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="44" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="40" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="46" t="s">
+      <c r="M17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="44" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="40" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="45" t="s">
+      <c r="L18" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="44" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="40" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="46" t="s">
+      <c r="L19" s="46"/>
+      <c r="M19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -2363,20 +2370,20 @@
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -2393,7 +2400,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="39" t="s">
         <v>41</v>
       </c>
       <c r="L23" s="12"/>
@@ -2418,7 +2425,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="39" t="s">
         <v>42</v>
       </c>
       <c r="L24" s="12"/>
@@ -2468,155 +2475,157 @@
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61" t="s">
+      <c r="E27" s="178"/>
+      <c r="F27" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="61" t="s">
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="63"/>
-      <c r="L27" s="15"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="253" t="s">
+        <v>104</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="254"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="254"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="19" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="254"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="19" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="26" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -2665,11 +2674,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="70" t="s">
+      <c r="M37" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
+      <c r="N37" s="163"/>
+      <c r="O37" s="163"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -2683,13 +2692,13 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="69" t="str">
+      <c r="L38" s="162" t="str">
         <f>B8</f>
         <v>No. #nobapq#</v>
       </c>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -2704,9 +2713,9 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -2721,32 +2730,32 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="165"/>
+      <c r="N41" s="165"/>
+      <c r="O41" s="165"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="28"/>
+      <c r="B42" s="27"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2761,527 +2770,514 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="64" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="166"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="166"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="31" t="s">
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="31" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33" t="s">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33" t="s">
+      <c r="L46" s="32"/>
+      <c r="M46" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="37" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="I49" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="39" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="33" t="s">
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="66" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="67" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="37" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="38" t="s">
+      <c r="I53" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="33" t="s">
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="H43:O44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
@@ -3296,6 +3292,19 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B41:O41"/>
+    <mergeCell ref="H43:O44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3311,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,205 +3335,200 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="175" t="str">
         <f>[1]BA!B12</f>
         <v>PEKERJAAN #namapengadaan#</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="196"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8" s="66">
         <f>BA!F28</f>
         <v>0</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="93"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="66">
         <f>BA!F29</f>
         <v>0</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="93"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="57">
         <f>BA!F31</f>
         <v>0</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="57">
         <f>BA!F31</f>
         <v>0</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="53">
         <f>BA!F32</f>
         <v>0</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="99" t="s">
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="59" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="99" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="99" t="s">
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="59" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="59" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="99" t="s">
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="59" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:B7"/>
@@ -3532,6 +3536,11 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3553,363 +3562,356 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="210" t="str">
         <f>[1]Resume!B2</f>
         <v>HASIL PENILAIAN KUALIFIKASI</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
     </row>
     <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="115" t="s">
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="200" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="116"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="203" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="118" t="s">
+      <c r="H7" s="67"/>
+      <c r="I7" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="121" t="s">
+      <c r="K7" s="206"/>
+      <c r="L7" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="119" t="s">
+      <c r="M7" s="207"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="119" t="s">
+      <c r="P7" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="118" t="s">
+      <c r="Q7" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="124"/>
+      <c r="R7" s="201"/>
     </row>
     <row r="8" spans="2:18" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="128" t="s">
+      <c r="B8" s="212"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="129" t="s">
+      <c r="I8" s="204"/>
+      <c r="J8" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="129" t="s">
+      <c r="K8" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="129" t="s">
+      <c r="L8" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="129" t="s">
+      <c r="M8" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="129" t="s">
+      <c r="N8" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="124"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="201"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="253"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="202"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136">
+      <c r="B10" s="213"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="74">
         <v>1</v>
       </c>
-      <c r="E10" s="136">
+      <c r="E10" s="74">
         <v>2</v>
       </c>
-      <c r="F10" s="136">
+      <c r="F10" s="74">
         <v>3</v>
       </c>
-      <c r="G10" s="137">
+      <c r="G10" s="75">
         <v>4</v>
       </c>
-      <c r="H10" s="137">
+      <c r="H10" s="75">
         <v>5</v>
       </c>
-      <c r="I10" s="137">
+      <c r="I10" s="75">
         <v>6</v>
       </c>
-      <c r="J10" s="137">
+      <c r="J10" s="75">
         <v>7</v>
       </c>
-      <c r="K10" s="137">
+      <c r="K10" s="75">
         <v>8</v>
       </c>
-      <c r="L10" s="137">
+      <c r="L10" s="75">
         <v>9</v>
       </c>
-      <c r="M10" s="137">
+      <c r="M10" s="75">
         <v>10</v>
       </c>
-      <c r="N10" s="137">
+      <c r="N10" s="75">
         <v>11</v>
       </c>
-      <c r="O10" s="137">
+      <c r="O10" s="75">
         <v>12</v>
       </c>
-      <c r="P10" s="137">
+      <c r="P10" s="75">
         <v>13</v>
       </c>
-      <c r="Q10" s="137">
+      <c r="Q10" s="75">
         <v>14</v>
       </c>
-      <c r="R10" s="137">
+      <c r="R10" s="75">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89" t="str">
+      <c r="C11" s="76"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49" t="str">
         <f>IF(S11&gt;=14,"Lulus",IF(S11&gt;0,"Gugur","-"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89" t="str">
+      <c r="C12" s="76"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49" t="str">
         <f>IF(S12&gt;=14,"Lulus",IF(S12&gt;0,"Gugur","-"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89" t="str">
+      <c r="C13" s="76"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49" t="str">
         <f>IF(S13&gt;=14,"Lulus",IF(S13&gt;0,"Gugur","-"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89" t="str">
+      <c r="C14" s="76"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49" t="str">
         <f>IF(S14&gt;=14,"Lulus",IF(S14&gt;0,"Gugur","-"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="251" t="s">
+      <c r="B15" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="252"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="238"/>
-      <c r="R15" s="239" t="str">
+      <c r="C15" s="158"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="148" t="str">
         <f>IF(S15&gt;=14,"Lulus",IF(S15&gt;0,"Gugur","-"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="B6:B10"/>
@@ -3919,6 +3921,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3928,13 +3937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
@@ -3944,524 +3953,519 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
     </row>
     <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="72"/>
-      <c r="M4" s="142"/>
-      <c r="O4" s="143"/>
+      <c r="C4" s="47"/>
+      <c r="M4" s="79"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="145" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="235"/>
+      <c r="E5" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="238" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="150" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="151" t="s">
+      <c r="K5" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="154" t="s">
+      <c r="L5" s="247"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="249" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="155"/>
-      <c r="P5" s="156" t="s">
+      <c r="O5" s="250"/>
+      <c r="P5" s="251" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="157"/>
-    </row>
-    <row r="6" spans="2:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="144"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="164" t="s">
+      <c r="Q5" s="252"/>
+    </row>
+    <row r="6" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="81"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="221" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="166" t="s">
+      <c r="L6" s="222"/>
+      <c r="M6" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="167" t="s">
+      <c r="N6" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="168" t="s">
+      <c r="O6" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="169" t="s">
+      <c r="P6" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="169" t="s">
+      <c r="Q6" s="85" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="170" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="171"/>
-      <c r="E7" s="232">
+      <c r="D7" s="87"/>
+      <c r="E7" s="141">
         <f>+[1]Resume!F6</f>
         <v>0</v>
       </c>
-      <c r="F7" s="172">
+      <c r="F7" s="88">
         <v>1</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="179">
+      <c r="G7" s="22"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94">
         <f>MAX(M7:M9)*5</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="180"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="174" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="175"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="182" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="177" t="s">
+      <c r="M8" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="178" t="s">
+      <c r="N8" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="O8" s="178" t="s">
+      <c r="O8" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="250"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="192"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="194"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="195" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="234">
+      <c r="D10" s="109"/>
+      <c r="E10" s="143">
         <f>+[1]Resume!F7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="110">
         <v>1</v>
       </c>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="200" t="s">
+      <c r="G10" s="111"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="248"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="243" t="s">
+      <c r="J10" s="154"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="242" t="s">
+      <c r="M10" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="177" t="s">
+      <c r="N10" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="O10" s="177" t="s">
+      <c r="O10" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="P10" s="201">
+      <c r="P10" s="113">
         <f>MAX(M10:M11)*5</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="202"/>
+      <c r="Q10" s="114"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="249"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="247"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="170" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="232">
+      <c r="D12" s="87"/>
+      <c r="E12" s="141">
         <f>[1]Resume!F8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="172">
+      <c r="F12" s="88">
         <v>1</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="174" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="240"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="242" t="s">
+      <c r="J12" s="149"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="242" t="s">
+      <c r="M12" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="177" t="s">
+      <c r="N12" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="177" t="s">
+      <c r="O12" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="P12" s="201">
+      <c r="P12" s="113">
         <f>MAX(M12:M13)*5</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="202"/>
+      <c r="Q12" s="114"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="242"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="183"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="242"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="183"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="211" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="234">
+      <c r="D15" s="109"/>
+      <c r="E15" s="143">
         <f>[1]Penerimaan!G43</f>
         <v>0</v>
       </c>
-      <c r="F15" s="197">
+      <c r="F15" s="110">
         <v>1</v>
       </c>
-      <c r="G15" s="198"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="212"/>
-      <c r="M15" s="243"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="214"/>
-      <c r="P15" s="215">
+      <c r="G15" s="111"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="126">
         <f>MAX(M15:M17)*5</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="202"/>
+      <c r="Q15" s="114"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="174" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="245"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="242" t="s">
+      <c r="J16" s="230"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="242" t="s">
+      <c r="M16" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="177" t="s">
+      <c r="N16" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="177" t="s">
+      <c r="O16" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="183"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="247"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="194"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="217"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="219" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="220"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="222"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="219" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="220"/>
-      <c r="E20" s="235"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="221"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="224" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="226"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="222"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="227" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="228">
+      <c r="D22" s="130"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="232">
         <v>1800000000</v>
       </c>
-      <c r="G22" s="228"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="226"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="224" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="220"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="226"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="230"/>
-      <c r="O23" s="222"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="237"/>
-      <c r="J24" s="229"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="143"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="146"/>
+      <c r="J24" s="138"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="J15:J17"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="C3:Q3"/>
@@ -4473,6 +4477,11 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="J15:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
